--- a/Practica_A2/Decisiones diseño.xlsx
+++ b/Practica_A2/Decisiones diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Proyectos_vivado\ADAV\Practica_A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC71FA05-7D22-47DA-94B3-61426D23758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C94053-F866-410B-BB9B-734E5A5B3BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{30530AEF-79DA-4A04-B31B-8BF833ED0E24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="157">
   <si>
     <t>Codificación RippleCarry</t>
   </si>
@@ -209,9 +209,6 @@
     <t>r1 = r2 + r6</t>
   </si>
   <si>
-    <t>r3 = r3 * inv_a1</t>
-  </si>
-  <si>
     <t>r6 = r3 * neg_a2</t>
   </si>
   <si>
@@ -498,6 +495,18 @@
   </si>
   <si>
     <t>c_s2</t>
+  </si>
+  <si>
+    <t>salidas = r3 = r3 * inv_a1</t>
+  </si>
+  <si>
+    <t>entradas</t>
+  </si>
+  <si>
+    <t>c_s (1 bit)</t>
+  </si>
+  <si>
+    <t>salidas</t>
   </si>
 </sst>
 </file>
@@ -695,13 +704,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,7 +723,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5DB22-5F45-44A4-B853-A79611CF8138}">
   <dimension ref="B1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1085,30 +1094,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="K2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="22"/>
+      <c r="C2" s="14"/>
+      <c r="K2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="20"/>
       <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="22"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1124,16 +1133,16 @@
         <v>20</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1152,14 +1161,14 @@
       <c r="N4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17" t="s">
+      <c r="O4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1180,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>49</v>
@@ -1206,10 +1215,10 @@
         <v>3</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>51</v>
@@ -1232,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>52</v>
@@ -1245,10 +1254,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="14"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1260,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>53</v>
@@ -1289,14 +1298,14 @@
       <c r="N9" s="6">
         <v>6</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="18"/>
+      <c r="O9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1315,14 +1324,14 @@
       <c r="N10" s="6">
         <v>7</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="18"/>
+      <c r="O10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1340,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -1365,23 +1374,23 @@
         <v>9</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="14"/>
       <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1393,16 +1402,16 @@
         <v>10</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -1422,14 +1431,14 @@
       <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="18"/>
+      <c r="O14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1485,10 +1494,10 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="14"/>
       <c r="K19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1568,34 +1577,34 @@
       <c r="M25" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="14"/>
+      <c r="B29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="21"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="12">
         <v>4</v>
@@ -1604,12 +1613,12 @@
         <v>20</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="12">
         <v>3</v>
@@ -1618,12 +1627,12 @@
         <v>43</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="12">
         <v>3</v>
@@ -1632,12 +1641,12 @@
         <v>44</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -1651,7 +1660,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -1665,7 +1674,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="12">
         <v>12</v>
@@ -1682,39 +1691,39 @@
         <v>18</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="H41" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M41" s="2"/>
     </row>
@@ -1723,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="11">
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>20</v>
@@ -1743,16 +1752,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="11">
         <v>2</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>20</v>
@@ -1763,16 +1772,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="11">
         <v>3</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>20</v>
@@ -1783,16 +1792,16 @@
         <v>4</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="11">
         <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>20</v>
@@ -1803,16 +1812,16 @@
         <v>5</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="11">
         <v>5</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>20</v>
@@ -1823,16 +1832,16 @@
         <v>6</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="11">
         <v>6</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>44</v>
@@ -1843,16 +1852,16 @@
         <v>7</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="11">
         <v>7</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>44</v>
@@ -1866,7 +1875,7 @@
         <v>1000</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="11">
         <v>8</v>
@@ -1886,7 +1895,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" s="11">
         <v>9</v>
@@ -1906,7 +1915,7 @@
         <v>1010</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="11">
         <v>10</v>
@@ -1923,19 +1932,19 @@
         <v>11</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="11">
         <v>11</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1943,39 +1952,39 @@
         <v>18</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -1983,19 +1992,19 @@
         <v>1</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" s="11">
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -2003,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>44</v>
@@ -2012,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>43</v>
@@ -2032,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>43</v>
@@ -2052,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>43</v>
@@ -2072,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>43</v>
@@ -2083,19 +2092,19 @@
         <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G61" s="11">
         <v>6</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -2103,19 +2112,19 @@
         <v>7</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G62" s="11">
         <v>7</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -2172,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>20</v>
@@ -2183,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>20</v>
@@ -2192,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>43</v>
@@ -2200,54 +2209,54 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D68" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="I68" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -2255,25 +2264,25 @@
         <v>1</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -2281,25 +2290,25 @@
         <v>2</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -2307,25 +2316,25 @@
         <v>3</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -2333,25 +2342,25 @@
         <v>4</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -2359,25 +2368,25 @@
         <v>5</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -2385,25 +2394,25 @@
         <v>6</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -2411,22 +2420,22 @@
         <v>7</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>8</v>
@@ -2437,25 +2446,25 @@
         <v>8</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -2463,25 +2472,25 @@
         <v>9</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -2489,25 +2498,25 @@
         <v>10</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -2516,139 +2525,255 @@
         <v>11</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G83" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>1</v>
       </c>
       <c r="C84" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G84" s="11">
+        <v>1</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>2</v>
       </c>
       <c r="C85" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G85" s="11">
+        <v>2</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>3</v>
       </c>
       <c r="C86" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G86" s="11">
+        <v>3</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>4</v>
       </c>
       <c r="C87" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G87" s="11">
+        <v>4</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>5</v>
       </c>
       <c r="C88" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G88" s="11">
+        <v>5</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>6</v>
       </c>
       <c r="C89" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G89" s="11">
+        <v>6</v>
+      </c>
+      <c r="H89" s="12">
+        <v>1</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>7</v>
       </c>
       <c r="C90" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G90" s="11">
+        <v>7</v>
+      </c>
+      <c r="H90" s="12">
+        <v>1</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <v>8</v>
       </c>
       <c r="C91" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G91" s="11">
+        <v>8</v>
+      </c>
+      <c r="H91" s="12">
+        <v>1</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <v>9</v>
       </c>
       <c r="C92" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G92" s="11">
+        <v>9</v>
+      </c>
+      <c r="H92" s="12">
+        <v>1</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>10</v>
       </c>
       <c r="C93" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G93" s="11">
+        <v>10</v>
+      </c>
+      <c r="H93" s="12">
+        <v>1</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="11">
         <v>11</v>
       </c>
       <c r="C94" s="12">
         <v>0</v>
       </c>
+      <c r="G94" s="11">
+        <v>11</v>
+      </c>
+      <c r="H94" s="12">
+        <v>1</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="Q28:R28"/>
@@ -2659,11 +2784,12 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Practica_A2/Decisiones diseño.xlsx
+++ b/Practica_A2/Decisiones diseño.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Proyectos_vivado\ADAV\Practica_A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C94053-F866-410B-BB9B-734E5A5B3BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7E175-9F4E-4AFA-A029-9015948F118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{30530AEF-79DA-4A04-B31B-8BF833ED0E24}"/>
+    <workbookView xWindow="14303" yWindow="-5430" windowWidth="21795" windowHeight="13245" xr2:uid="{30530AEF-79DA-4A04-B31B-8BF833ED0E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,17 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,23 +723,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,14 +1069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5DB22-5F45-44A4-B853-A79611CF8138}">
   <dimension ref="B1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1084,7 +1084,7 @@
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="29.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.7109375" bestFit="1" customWidth="1"/>
@@ -1099,25 +1099,25 @@
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="K2" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="K2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="22"/>
       <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1135,14 +1135,14 @@
       <c r="N3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="15" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="16"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1161,14 +1161,14 @@
       <c r="N4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="15" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1254,10 +1254,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="23"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1298,14 +1298,14 @@
       <c r="N9" s="6">
         <v>6</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="16"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1324,14 +1324,14 @@
       <c r="N10" s="6">
         <v>7</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="15" t="s">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="16"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1387,10 +1387,10 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="23"/>
       <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>84</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="R14" s="16"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1494,10 +1494,10 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="23"/>
       <c r="K19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="R28" s="17"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
@@ -2769,12 +2769,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="O14:P14"/>
@@ -2784,12 +2784,12 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O28:P28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
